--- a/team_specific_matrix/SFA_A.xlsx
+++ b/team_specific_matrix/SFA_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2229299363057325</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="C2">
-        <v>0.5191082802547771</v>
+        <v>0.5131195335276968</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01910828025477707</v>
+        <v>0.01749271137026239</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1656050955414013</v>
+        <v>0.1749271137026239</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0732484076433121</v>
+        <v>0.06997084548104957</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02906976744186046</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05232558139534884</v>
+        <v>0.04864864864864865</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7558139534883721</v>
+        <v>0.7513513513513513</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1627906976744186</v>
+        <v>0.172972972972973</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.125</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5625</v>
+        <v>0.6341463414634146</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3125</v>
+        <v>0.2682926829268293</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08021390374331551</v>
+        <v>0.07870370370370371</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06417112299465241</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2887700534759358</v>
+        <v>0.2824074074074074</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0374331550802139</v>
+        <v>0.03240740740740741</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1176470588235294</v>
+        <v>0.1435185185185185</v>
       </c>
       <c r="R6">
-        <v>0.0427807486631016</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="S6">
-        <v>0.3689839572192513</v>
+        <v>0.3657407407407408</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.171875</v>
+        <v>0.1517857142857143</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02604166666666667</v>
+        <v>0.02232142857142857</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06770833333333333</v>
+        <v>0.0625</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1458333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03125</v>
+        <v>0.02678571428571428</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1510416666666667</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="R7">
-        <v>0.05729166666666666</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="S7">
-        <v>0.3489583333333333</v>
+        <v>0.3616071428571428</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09737827715355805</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01123595505617977</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0749063670411985</v>
+        <v>0.06774193548387097</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1348314606741573</v>
+        <v>0.1258064516129032</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03745318352059925</v>
+        <v>0.03870967741935484</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1797752808988764</v>
+        <v>0.1741935483870968</v>
       </c>
       <c r="R8">
-        <v>0.07865168539325842</v>
+        <v>0.07741935483870968</v>
       </c>
       <c r="S8">
-        <v>0.3857677902621723</v>
+        <v>0.3903225806451613</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1063829787234043</v>
+        <v>0.1012658227848101</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02127659574468085</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07092198581560284</v>
+        <v>0.06962025316455696</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1347517730496454</v>
+        <v>0.1329113924050633</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03546099290780142</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2198581560283688</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="R9">
-        <v>0.09929078014184398</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="S9">
-        <v>0.3120567375886525</v>
+        <v>0.3417721518987342</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1432532347504621</v>
+        <v>0.1332788225674571</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.022181146025878</v>
+        <v>0.02534750613246116</v>
       </c>
       <c r="E10">
-        <v>0.001848428835489834</v>
+        <v>0.001635322976287817</v>
       </c>
       <c r="F10">
-        <v>0.06561922365988909</v>
+        <v>0.06950122649223221</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1321626617375231</v>
+        <v>0.1275551921504497</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02402957486136784</v>
+        <v>0.02371218315617334</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2199630314232902</v>
+        <v>0.2134096484055601</v>
       </c>
       <c r="R10">
-        <v>0.04898336414048059</v>
+        <v>0.05314799672935405</v>
       </c>
       <c r="S10">
-        <v>0.3419593345656192</v>
+        <v>0.3524121013900245</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1437908496732026</v>
+        <v>0.1472222222222222</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08823529411764706</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="K11">
-        <v>0.196078431372549</v>
+        <v>0.2027777777777778</v>
       </c>
       <c r="L11">
-        <v>0.5686274509803921</v>
+        <v>0.5472222222222223</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.00326797385620915</v>
+        <v>0.01388888888888889</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7555555555555555</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1833333333333333</v>
+        <v>0.1804878048780488</v>
       </c>
       <c r="K12">
-        <v>0.01111111111111111</v>
+        <v>0.00975609756097561</v>
       </c>
       <c r="L12">
-        <v>0.02222222222222222</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02777777777777778</v>
+        <v>0.02926829268292683</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5416666666666666</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08333333333333333</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0160427807486631</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1336898395721925</v>
+        <v>0.1342592592592593</v>
       </c>
       <c r="I15">
-        <v>0.08021390374331551</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J15">
-        <v>0.374331550802139</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="K15">
-        <v>0.0374331550802139</v>
+        <v>0.05092592592592592</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0053475935828877</v>
+        <v>0.004629629629629629</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0481283422459893</v>
+        <v>0.05092592592592592</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3048128342245989</v>
+        <v>0.3009259259259259</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0303030303030303</v>
+        <v>0.03603603603603604</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.101010101010101</v>
+        <v>0.1216216216216216</v>
       </c>
       <c r="I16">
-        <v>0.07575757575757576</v>
+        <v>0.08558558558558559</v>
       </c>
       <c r="J16">
-        <v>0.4696969696969697</v>
+        <v>0.454954954954955</v>
       </c>
       <c r="K16">
-        <v>0.1515151515151515</v>
+        <v>0.1396396396396396</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.005050505050505051</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="O16">
-        <v>0.04545454545454546</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1212121212121212</v>
+        <v>0.1126126126126126</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02989130434782609</v>
+        <v>0.03125</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1820652173913044</v>
+        <v>0.1682692307692308</v>
       </c>
       <c r="I17">
-        <v>0.07608695652173914</v>
+        <v>0.07211538461538461</v>
       </c>
       <c r="J17">
-        <v>0.3967391304347826</v>
+        <v>0.4134615384615384</v>
       </c>
       <c r="K17">
-        <v>0.1277173913043478</v>
+        <v>0.1201923076923077</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02173913043478261</v>
+        <v>0.02163461538461538</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06793478260869565</v>
+        <v>0.06490384615384616</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09782608695652174</v>
+        <v>0.1081730769230769</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02857142857142857</v>
+        <v>0.02479338842975207</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1333333333333333</v>
+        <v>0.140495867768595</v>
       </c>
       <c r="I18">
-        <v>0.05714285714285714</v>
+        <v>0.04958677685950413</v>
       </c>
       <c r="J18">
-        <v>0.4476190476190476</v>
+        <v>0.4380165289256198</v>
       </c>
       <c r="K18">
-        <v>0.1333333333333333</v>
+        <v>0.140495867768595</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.009523809523809525</v>
+        <v>0.02479338842975207</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1047619047619048</v>
+        <v>0.09917355371900827</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08571428571428572</v>
+        <v>0.08264462809917356</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01594048884165781</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1519659936238045</v>
+        <v>0.1545454545454545</v>
       </c>
       <c r="I19">
-        <v>0.08289054197662062</v>
+        <v>0.07818181818181819</v>
       </c>
       <c r="J19">
-        <v>0.3931987247608927</v>
+        <v>0.3881818181818182</v>
       </c>
       <c r="K19">
-        <v>0.1540913921360255</v>
+        <v>0.1581818181818182</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01381509032943677</v>
+        <v>0.01181818181818182</v>
       </c>
       <c r="N19">
-        <v>0.004250797024442083</v>
+        <v>0.003636363636363636</v>
       </c>
       <c r="O19">
-        <v>0.07013815090329437</v>
+        <v>0.07363636363636364</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1137088204038257</v>
+        <v>0.1136363636363636</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/SFA_A.xlsx
+++ b/team_specific_matrix/SFA_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2244897959183673</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="C2">
-        <v>0.5131195335276968</v>
+        <v>0.5064935064935064</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01749271137026239</v>
+        <v>0.02337662337662338</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1749271137026239</v>
+        <v>0.1662337662337662</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06997084548104957</v>
+        <v>0.07532467532467532</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02702702702702703</v>
+        <v>0.02450980392156863</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04864864864864865</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7513513513513513</v>
+        <v>0.7549019607843137</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.172972972972973</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0975609756097561</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6341463414634146</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2682926829268293</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07870370370370371</v>
+        <v>0.0860655737704918</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05555555555555555</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2824074074074074</v>
+        <v>0.2950819672131147</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03240740740740741</v>
+        <v>0.02868852459016394</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1435185185185185</v>
+        <v>0.1352459016393443</v>
       </c>
       <c r="R6">
-        <v>0.04166666666666666</v>
+        <v>0.04508196721311476</v>
       </c>
       <c r="S6">
-        <v>0.3657407407407408</v>
+        <v>0.360655737704918</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1517857142857143</v>
+        <v>0.145748987854251</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02232142857142857</v>
+        <v>0.0242914979757085</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0625</v>
+        <v>0.06477732793522267</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1428571428571428</v>
+        <v>0.1376518218623482</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02678571428571428</v>
+        <v>0.0242914979757085</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1785714285714286</v>
+        <v>0.1781376518218623</v>
       </c>
       <c r="R7">
-        <v>0.05357142857142857</v>
+        <v>0.05668016194331984</v>
       </c>
       <c r="S7">
-        <v>0.3616071428571428</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1129032258064516</v>
+        <v>0.1098591549295775</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01290322580645161</v>
+        <v>0.01126760563380282</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06774193548387097</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1258064516129032</v>
+        <v>0.123943661971831</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03870967741935484</v>
+        <v>0.03380281690140845</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1741935483870968</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="R8">
-        <v>0.07741935483870968</v>
+        <v>0.08169014084507042</v>
       </c>
       <c r="S8">
-        <v>0.3903225806451613</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1012658227848101</v>
+        <v>0.106145251396648</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02531645569620253</v>
+        <v>0.0335195530726257</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06962025316455696</v>
+        <v>0.0782122905027933</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1329113924050633</v>
+        <v>0.1396648044692737</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0379746835443038</v>
+        <v>0.0335195530726257</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2025316455696203</v>
+        <v>0.1843575418994413</v>
       </c>
       <c r="R9">
-        <v>0.08860759493670886</v>
+        <v>0.08379888268156424</v>
       </c>
       <c r="S9">
-        <v>0.3417721518987342</v>
+        <v>0.3407821229050279</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1332788225674571</v>
+        <v>0.1327953044754219</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02534750613246116</v>
+        <v>0.02347762289068232</v>
       </c>
       <c r="E10">
-        <v>0.001635322976287817</v>
+        <v>0.001467351430667645</v>
       </c>
       <c r="F10">
-        <v>0.06950122649223221</v>
+        <v>0.07116654438738078</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1275551921504497</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02371218315617334</v>
+        <v>0.02347762289068232</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2134096484055601</v>
+        <v>0.2090975788701394</v>
       </c>
       <c r="R10">
-        <v>0.05314799672935405</v>
+        <v>0.05429200293470286</v>
       </c>
       <c r="S10">
-        <v>0.3524121013900245</v>
+        <v>0.3565663976522377</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1472222222222222</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08888888888888889</v>
+        <v>0.09183673469387756</v>
       </c>
       <c r="K11">
-        <v>0.2027777777777778</v>
+        <v>0.1989795918367347</v>
       </c>
       <c r="L11">
-        <v>0.5472222222222223</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01388888888888889</v>
+        <v>0.01275510204081633</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7560975609756098</v>
+        <v>0.76</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1804878048780488</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="K12">
-        <v>0.00975609756097561</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="L12">
-        <v>0.02439024390243903</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02926829268292683</v>
+        <v>0.03111111111111111</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5925925925925926</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3333333333333333</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07407407407407407</v>
+        <v>0.06060606060606061</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01388888888888889</v>
+        <v>0.01673640167364017</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1342592592592593</v>
+        <v>0.1380753138075314</v>
       </c>
       <c r="I15">
-        <v>0.08333333333333333</v>
+        <v>0.07531380753138076</v>
       </c>
       <c r="J15">
-        <v>0.3611111111111111</v>
+        <v>0.3640167364016736</v>
       </c>
       <c r="K15">
-        <v>0.05092592592592592</v>
+        <v>0.05439330543933055</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004629629629629629</v>
+        <v>0.004184100418410041</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05092592592592592</v>
+        <v>0.04602510460251046</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3009259259259259</v>
+        <v>0.301255230125523</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03603603603603604</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1216216216216216</v>
+        <v>0.1229508196721311</v>
       </c>
       <c r="I16">
-        <v>0.08558558558558559</v>
+        <v>0.0860655737704918</v>
       </c>
       <c r="J16">
-        <v>0.454954954954955</v>
+        <v>0.4549180327868853</v>
       </c>
       <c r="K16">
-        <v>0.1396396396396396</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.004504504504504504</v>
+        <v>0.004098360655737705</v>
       </c>
       <c r="N16">
-        <v>0.004504504504504504</v>
+        <v>0.004098360655737705</v>
       </c>
       <c r="O16">
-        <v>0.04054054054054054</v>
+        <v>0.04508196721311476</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1126126126126126</v>
+        <v>0.1024590163934426</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03125</v>
+        <v>0.02876106194690265</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1682692307692308</v>
+        <v>0.1615044247787611</v>
       </c>
       <c r="I17">
-        <v>0.07211538461538461</v>
+        <v>0.07079646017699115</v>
       </c>
       <c r="J17">
-        <v>0.4134615384615384</v>
+        <v>0.413716814159292</v>
       </c>
       <c r="K17">
-        <v>0.1201923076923077</v>
+        <v>0.1216814159292035</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02163461538461538</v>
+        <v>0.02212389380530973</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06490384615384616</v>
+        <v>0.06858407079646017</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1081730769230769</v>
+        <v>0.1128318584070796</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02479338842975207</v>
+        <v>0.02142857142857143</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.140495867768595</v>
+        <v>0.15</v>
       </c>
       <c r="I18">
-        <v>0.04958677685950413</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="J18">
-        <v>0.4380165289256198</v>
+        <v>0.4142857142857143</v>
       </c>
       <c r="K18">
-        <v>0.140495867768595</v>
+        <v>0.1285714285714286</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02479338842975207</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.09917355371900827</v>
+        <v>0.1</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08264462809917356</v>
+        <v>0.09285714285714286</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01818181818181818</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1545454545454545</v>
+        <v>0.1617055510860821</v>
       </c>
       <c r="I19">
-        <v>0.07818181818181819</v>
+        <v>0.08125502815768303</v>
       </c>
       <c r="J19">
-        <v>0.3881818181818182</v>
+        <v>0.3853580048270314</v>
       </c>
       <c r="K19">
-        <v>0.1581818181818182</v>
+        <v>0.1504424778761062</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01181818181818182</v>
+        <v>0.01287208366854384</v>
       </c>
       <c r="N19">
-        <v>0.003636363636363636</v>
+        <v>0.003218020917135961</v>
       </c>
       <c r="O19">
-        <v>0.07363636363636364</v>
+        <v>0.07320997586484312</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1136363636363636</v>
+        <v>0.1142397425583266</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/SFA_A.xlsx
+++ b/team_specific_matrix/SFA_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2285714285714286</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="C2">
-        <v>0.5064935064935064</v>
+        <v>0.5025252525252525</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02337662337662338</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1662337662337662</v>
+        <v>0.1641414141414141</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07532467532467532</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02450980392156863</v>
+        <v>0.02403846153846154</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04411764705882353</v>
+        <v>0.04326923076923077</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7549019607843137</v>
+        <v>0.75</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1764705882352941</v>
+        <v>0.1826923076923077</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6590909090909091</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.25</v>
+        <v>0.2391304347826087</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0860655737704918</v>
+        <v>0.08366533864541832</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04918032786885246</v>
+        <v>0.04780876494023904</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2950819672131147</v>
+        <v>0.2948207171314741</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02868852459016394</v>
+        <v>0.02788844621513944</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1352459016393443</v>
+        <v>0.1354581673306773</v>
       </c>
       <c r="R6">
-        <v>0.04508196721311476</v>
+        <v>0.04382470119521913</v>
       </c>
       <c r="S6">
-        <v>0.360655737704918</v>
+        <v>0.3665338645418327</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.145748987854251</v>
+        <v>0.1417322834645669</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0242914979757085</v>
+        <v>0.02755905511811024</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06477732793522267</v>
+        <v>0.06299212598425197</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1376518218623482</v>
+        <v>0.1377952755905512</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0242914979757085</v>
+        <v>0.02755905511811024</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1781376518218623</v>
+        <v>0.1850393700787402</v>
       </c>
       <c r="R7">
-        <v>0.05668016194331984</v>
+        <v>0.05511811023622047</v>
       </c>
       <c r="S7">
-        <v>0.3684210526315789</v>
+        <v>0.3622047244094488</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1098591549295775</v>
+        <v>0.1141304347826087</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01126760563380282</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07042253521126761</v>
+        <v>0.07065217391304347</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.123943661971831</v>
+        <v>0.1222826086956522</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03380281690140845</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1690140845070423</v>
+        <v>0.1657608695652174</v>
       </c>
       <c r="R8">
-        <v>0.08169014084507042</v>
+        <v>0.08423913043478261</v>
       </c>
       <c r="S8">
-        <v>0.4</v>
+        <v>0.3994565217391304</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.106145251396648</v>
+        <v>0.1141304347826087</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0335195530726257</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0782122905027933</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1396648044692737</v>
+        <v>0.1413043478260869</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0335195530726257</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1843575418994413</v>
+        <v>0.1902173913043478</v>
       </c>
       <c r="R9">
-        <v>0.08379888268156424</v>
+        <v>0.08152173913043478</v>
       </c>
       <c r="S9">
-        <v>0.3407821229050279</v>
+        <v>0.3315217391304348</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1327953044754219</v>
+        <v>0.1302816901408451</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02347762289068232</v>
+        <v>0.02323943661971831</v>
       </c>
       <c r="E10">
-        <v>0.001467351430667645</v>
+        <v>0.001408450704225352</v>
       </c>
       <c r="F10">
-        <v>0.07116654438738078</v>
+        <v>0.07112676056338028</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1276595744680851</v>
+        <v>0.126056338028169</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02347762289068232</v>
+        <v>0.02394366197183099</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2090975788701394</v>
+        <v>0.2119718309859155</v>
       </c>
       <c r="R10">
-        <v>0.05429200293470286</v>
+        <v>0.05704225352112676</v>
       </c>
       <c r="S10">
-        <v>0.3565663976522377</v>
+        <v>0.3549295774647888</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1428571428571428</v>
+        <v>0.142156862745098</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09183673469387756</v>
+        <v>0.09558823529411764</v>
       </c>
       <c r="K11">
-        <v>0.1989795918367347</v>
+        <v>0.1985294117647059</v>
       </c>
       <c r="L11">
-        <v>0.5535714285714286</v>
+        <v>0.5514705882352942</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01275510204081633</v>
+        <v>0.01225490196078431</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.76</v>
+        <v>0.7553648068669528</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1777777777777778</v>
+        <v>0.184549356223176</v>
       </c>
       <c r="K12">
-        <v>0.008888888888888889</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="L12">
-        <v>0.02222222222222222</v>
+        <v>0.02145922746781116</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03111111111111111</v>
+        <v>0.03004291845493562</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01673640167364017</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1380753138075314</v>
+        <v>0.1370967741935484</v>
       </c>
       <c r="I15">
-        <v>0.07531380753138076</v>
+        <v>0.07258064516129033</v>
       </c>
       <c r="J15">
-        <v>0.3640167364016736</v>
+        <v>0.3669354838709677</v>
       </c>
       <c r="K15">
-        <v>0.05439330543933055</v>
+        <v>0.0564516129032258</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004184100418410041</v>
+        <v>0.004032258064516129</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04602510460251046</v>
+        <v>0.04435483870967742</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.301255230125523</v>
+        <v>0.3024193548387097</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03278688524590164</v>
+        <v>0.036</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1229508196721311</v>
+        <v>0.124</v>
       </c>
       <c r="I16">
-        <v>0.0860655737704918</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="J16">
-        <v>0.4549180327868853</v>
+        <v>0.452</v>
       </c>
       <c r="K16">
-        <v>0.1475409836065574</v>
+        <v>0.148</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.004098360655737705</v>
+        <v>0.004</v>
       </c>
       <c r="N16">
-        <v>0.004098360655737705</v>
+        <v>0.004</v>
       </c>
       <c r="O16">
-        <v>0.04508196721311476</v>
+        <v>0.044</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1024590163934426</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02876106194690265</v>
+        <v>0.02742616033755274</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1615044247787611</v>
+        <v>0.1624472573839662</v>
       </c>
       <c r="I17">
-        <v>0.07079646017699115</v>
+        <v>0.07172995780590717</v>
       </c>
       <c r="J17">
-        <v>0.413716814159292</v>
+        <v>0.4135021097046414</v>
       </c>
       <c r="K17">
-        <v>0.1216814159292035</v>
+        <v>0.1244725738396625</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02212389380530973</v>
+        <v>0.02109704641350211</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06858407079646017</v>
+        <v>0.06751054852320675</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1128318584070796</v>
+        <v>0.1118143459915612</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02142857142857143</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.15</v>
+        <v>0.1543624161073825</v>
       </c>
       <c r="I18">
-        <v>0.05714285714285714</v>
+        <v>0.06711409395973154</v>
       </c>
       <c r="J18">
-        <v>0.4142857142857143</v>
+        <v>0.4093959731543624</v>
       </c>
       <c r="K18">
-        <v>0.1285714285714286</v>
+        <v>0.1275167785234899</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03571428571428571</v>
+        <v>0.03355704697986577</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1</v>
+        <v>0.1006711409395973</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09285714285714286</v>
+        <v>0.08724832214765101</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01769911504424779</v>
+        <v>0.01706749418153607</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1617055510860821</v>
+        <v>0.1598138091543832</v>
       </c>
       <c r="I19">
-        <v>0.08125502815768303</v>
+        <v>0.0791311093871218</v>
       </c>
       <c r="J19">
-        <v>0.3853580048270314</v>
+        <v>0.3894491854150504</v>
       </c>
       <c r="K19">
-        <v>0.1504424778761062</v>
+        <v>0.1497284716834756</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01287208366854384</v>
+        <v>0.01241272304111714</v>
       </c>
       <c r="N19">
-        <v>0.003218020917135961</v>
+        <v>0.003103180760279286</v>
       </c>
       <c r="O19">
-        <v>0.07320997586484312</v>
+        <v>0.07292474786656322</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1142397425583266</v>
+        <v>0.1163692785104732</v>
       </c>
     </row>
   </sheetData>
